--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Icam1-Itgb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Icam1-Itgb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.452709</v>
+        <v>30.39114566666667</v>
       </c>
       <c r="H2">
-        <v>43.358127</v>
+        <v>91.17343700000001</v>
       </c>
       <c r="I2">
-        <v>0.1476906377370901</v>
+        <v>0.2485034818803364</v>
       </c>
       <c r="J2">
-        <v>0.1476906377370901</v>
+        <v>0.2485034818803363</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1087903333333333</v>
+        <v>0.1145113333333333</v>
       </c>
       <c r="N2">
-        <v>0.326371</v>
+        <v>0.343534</v>
       </c>
       <c r="O2">
-        <v>0.001630158713897873</v>
+        <v>0.001785365609625045</v>
       </c>
       <c r="P2">
-        <v>0.001630158713897873</v>
+        <v>0.001785365609625044</v>
       </c>
       <c r="Q2">
-        <v>1.572315029679667</v>
+        <v>3.480130611817556</v>
       </c>
       <c r="R2">
-        <v>14.150835267117</v>
+        <v>31.321175506358</v>
       </c>
       <c r="S2">
-        <v>0.0002407591800682515</v>
+        <v>0.0004436695704212329</v>
       </c>
       <c r="T2">
-        <v>0.0002407591800682515</v>
+        <v>0.0004436695704212328</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.452709</v>
+        <v>30.39114566666667</v>
       </c>
       <c r="H3">
-        <v>43.358127</v>
+        <v>91.17343700000001</v>
       </c>
       <c r="I3">
-        <v>0.1476906377370901</v>
+        <v>0.2485034818803364</v>
       </c>
       <c r="J3">
-        <v>0.1476906377370901</v>
+        <v>0.2485034818803363</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.402575</v>
       </c>
       <c r="O3">
-        <v>0.007005585233201815</v>
+        <v>0.007289261528465441</v>
       </c>
       <c r="P3">
-        <v>0.007005585233201815</v>
+        <v>0.007289261528465441</v>
       </c>
       <c r="Q3">
-        <v>6.757002775225</v>
+        <v>14.20862037780834</v>
       </c>
       <c r="R3">
-        <v>60.813024977025</v>
+        <v>127.877583400275</v>
       </c>
       <c r="S3">
-        <v>0.001034659350813117</v>
+        <v>0.001811406870160044</v>
       </c>
       <c r="T3">
-        <v>0.001034659350813117</v>
+        <v>0.001811406870160044</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,51 +661,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.452709</v>
+        <v>30.39114566666667</v>
       </c>
       <c r="H4">
-        <v>43.358127</v>
+        <v>91.17343700000001</v>
       </c>
       <c r="I4">
-        <v>0.1476906377370901</v>
+        <v>0.2485034818803364</v>
       </c>
       <c r="J4">
-        <v>0.1476906377370901</v>
+        <v>0.2485034818803363</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8144386666666666</v>
+        <v>63.556834</v>
       </c>
       <c r="N4">
-        <v>2.443316</v>
+        <v>190.670502</v>
       </c>
       <c r="O4">
-        <v>0.01220388106849596</v>
+        <v>0.9909253728619096</v>
       </c>
       <c r="P4">
-        <v>0.01220388106849596</v>
+        <v>0.9909253728619095</v>
       </c>
       <c r="Q4">
-        <v>11.77084504768133</v>
+        <v>1931.565000206153</v>
       </c>
       <c r="R4">
-        <v>105.937605429132</v>
+        <v>17384.08500185538</v>
       </c>
       <c r="S4">
-        <v>0.001802398977873769</v>
+        <v>0.2462484054397551</v>
       </c>
       <c r="T4">
-        <v>0.001802398977873769</v>
+        <v>0.246248405439755</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.452709</v>
+        <v>45.91529066666667</v>
       </c>
       <c r="H5">
-        <v>43.358127</v>
+        <v>137.745872</v>
       </c>
       <c r="I5">
-        <v>0.1476906377370901</v>
+        <v>0.3754419042757282</v>
       </c>
       <c r="J5">
-        <v>0.1476906377370901</v>
+        <v>0.3754419042757282</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>65.34528366666666</v>
+        <v>0.1145113333333333</v>
       </c>
       <c r="N5">
-        <v>196.035851</v>
+        <v>0.343534</v>
       </c>
       <c r="O5">
-        <v>0.9791603749844043</v>
+        <v>0.001785365609625045</v>
       </c>
       <c r="P5">
-        <v>0.9791603749844044</v>
+        <v>0.001785365609625044</v>
       </c>
       <c r="Q5">
-        <v>944.4163693567862</v>
+        <v>5.257821154627556</v>
       </c>
       <c r="R5">
-        <v>8499.747324211075</v>
+        <v>47.320390391648</v>
       </c>
       <c r="S5">
-        <v>0.144612820228335</v>
+        <v>0.0006703010643060231</v>
       </c>
       <c r="T5">
-        <v>0.144612820228335</v>
+        <v>0.000670301064306023</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>45.91529066666666</v>
+        <v>45.91529066666667</v>
       </c>
       <c r="H6">
         <v>137.745872</v>
       </c>
       <c r="I6">
-        <v>0.4692032864180591</v>
+        <v>0.3754419042757282</v>
       </c>
       <c r="J6">
-        <v>0.4692032864180591</v>
+        <v>0.3754419042757282</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1087903333333333</v>
+        <v>0.467525</v>
       </c>
       <c r="N6">
-        <v>0.326371</v>
+        <v>1.402575</v>
       </c>
       <c r="O6">
-        <v>0.001630158713897873</v>
+        <v>0.007289261528465441</v>
       </c>
       <c r="P6">
-        <v>0.001630158713897873</v>
+        <v>0.007289261528465441</v>
       </c>
       <c r="Q6">
-        <v>4.995139776723556</v>
+        <v>21.46654626893334</v>
       </c>
       <c r="R6">
-        <v>44.956257990512</v>
+        <v>193.1989164204001</v>
       </c>
       <c r="S6">
-        <v>0.0007648758259439185</v>
+        <v>0.00273669422901087</v>
       </c>
       <c r="T6">
-        <v>0.0007648758259439187</v>
+        <v>0.00273669422901087</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>45.91529066666666</v>
+        <v>45.91529066666667</v>
       </c>
       <c r="H7">
         <v>137.745872</v>
       </c>
       <c r="I7">
-        <v>0.4692032864180591</v>
+        <v>0.3754419042757282</v>
       </c>
       <c r="J7">
-        <v>0.4692032864180591</v>
+        <v>0.3754419042757282</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.467525</v>
+        <v>63.556834</v>
       </c>
       <c r="N7">
-        <v>1.402575</v>
+        <v>190.670502</v>
       </c>
       <c r="O7">
-        <v>0.007005585233201815</v>
+        <v>0.9909253728619096</v>
       </c>
       <c r="P7">
-        <v>0.007005585233201815</v>
+        <v>0.9909253728619095</v>
       </c>
       <c r="Q7">
-        <v>21.46654626893333</v>
+        <v>2918.230506963083</v>
       </c>
       <c r="R7">
-        <v>193.1989164204</v>
+        <v>26264.07456266775</v>
       </c>
       <c r="S7">
-        <v>0.003287043614700117</v>
+        <v>0.3720349089824113</v>
       </c>
       <c r="T7">
-        <v>0.003287043614700117</v>
+        <v>0.3720349089824113</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>45.91529066666666</v>
+        <v>2.332475</v>
       </c>
       <c r="H8">
-        <v>137.745872</v>
+        <v>6.997425</v>
       </c>
       <c r="I8">
-        <v>0.4692032864180591</v>
+        <v>0.01907227076123622</v>
       </c>
       <c r="J8">
-        <v>0.4692032864180591</v>
+        <v>0.01907227076123622</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -927,33 +927,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.8144386666666666</v>
+        <v>0.1145113333333333</v>
       </c>
       <c r="N8">
-        <v>2.443316</v>
+        <v>0.343534</v>
       </c>
       <c r="O8">
-        <v>0.01220388106849596</v>
+        <v>0.001785365609625045</v>
       </c>
       <c r="P8">
-        <v>0.01220388106849596</v>
+        <v>0.001785365609625044</v>
       </c>
       <c r="Q8">
-        <v>37.39518811017244</v>
+        <v>0.2670948222166667</v>
       </c>
       <c r="R8">
-        <v>336.5566929915519</v>
+        <v>2.40385339995</v>
       </c>
       <c r="S8">
-        <v>0.00572610110439344</v>
+        <v>3.405097631456842E-05</v>
       </c>
       <c r="T8">
-        <v>0.00572610110439344</v>
+        <v>3.405097631456841E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>45.91529066666666</v>
+        <v>2.332475</v>
       </c>
       <c r="H9">
-        <v>137.745872</v>
+        <v>6.997425</v>
       </c>
       <c r="I9">
-        <v>0.4692032864180591</v>
+        <v>0.01907227076123622</v>
       </c>
       <c r="J9">
-        <v>0.4692032864180591</v>
+        <v>0.01907227076123622</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>65.34528366666666</v>
+        <v>0.467525</v>
       </c>
       <c r="N9">
-        <v>196.035851</v>
+        <v>1.402575</v>
       </c>
       <c r="O9">
-        <v>0.9791603749844043</v>
+        <v>0.007289261528465441</v>
       </c>
       <c r="P9">
-        <v>0.9791603749844044</v>
+        <v>0.007289261528465441</v>
       </c>
       <c r="Q9">
-        <v>3000.347693250785</v>
+        <v>1.090490374375</v>
       </c>
       <c r="R9">
-        <v>27003.12923925707</v>
+        <v>9.814413369375</v>
       </c>
       <c r="S9">
-        <v>0.4594252658730217</v>
+        <v>0.0001390227695203555</v>
       </c>
       <c r="T9">
-        <v>0.4594252658730217</v>
+        <v>0.0001390227695203555</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,51 +1033,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.474929666666667</v>
+        <v>2.332475</v>
       </c>
       <c r="H10">
-        <v>4.424789000000001</v>
+        <v>6.997425</v>
       </c>
       <c r="I10">
-        <v>0.01507214343604052</v>
+        <v>0.01907227076123622</v>
       </c>
       <c r="J10">
-        <v>0.01507214343604052</v>
+        <v>0.01907227076123622</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1087903333333333</v>
+        <v>63.556834</v>
       </c>
       <c r="N10">
-        <v>0.326371</v>
+        <v>190.670502</v>
       </c>
       <c r="O10">
-        <v>0.001630158713897873</v>
+        <v>0.9909253728619096</v>
       </c>
       <c r="P10">
-        <v>0.001630158713897873</v>
+        <v>0.9909253728619095</v>
       </c>
       <c r="Q10">
-        <v>0.1604580900798889</v>
+        <v>148.24472638415</v>
       </c>
       <c r="R10">
-        <v>1.444122810719</v>
+        <v>1334.20253745735</v>
       </c>
       <c r="S10">
-        <v>2.456998595938009E-05</v>
+        <v>0.0188991970154013</v>
       </c>
       <c r="T10">
-        <v>2.456998595938009E-05</v>
+        <v>0.01889919701540129</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,51 +1095,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.474929666666667</v>
+        <v>43.657748</v>
       </c>
       <c r="H11">
-        <v>4.424789000000001</v>
+        <v>130.973244</v>
       </c>
       <c r="I11">
-        <v>0.01507214343604052</v>
+        <v>0.3569823430826993</v>
       </c>
       <c r="J11">
-        <v>0.01507214343604052</v>
+        <v>0.3569823430826993</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.467525</v>
+        <v>0.1145113333333333</v>
       </c>
       <c r="N11">
-        <v>1.402575</v>
+        <v>0.343534</v>
       </c>
       <c r="O11">
-        <v>0.007005585233201815</v>
+        <v>0.001785365609625045</v>
       </c>
       <c r="P11">
-        <v>0.007005585233201815</v>
+        <v>0.001785365609625044</v>
       </c>
       <c r="Q11">
-        <v>0.6895664924083335</v>
+        <v>4.999306933810667</v>
       </c>
       <c r="R11">
-        <v>6.206098431675001</v>
+        <v>44.993762404296</v>
       </c>
       <c r="S11">
-        <v>0.0001055891854882251</v>
+        <v>0.0006373439985832202</v>
       </c>
       <c r="T11">
-        <v>0.0001055891854882251</v>
+        <v>0.0006373439985832201</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,51 +1157,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.474929666666667</v>
+        <v>43.657748</v>
       </c>
       <c r="H12">
-        <v>4.424789000000001</v>
+        <v>130.973244</v>
       </c>
       <c r="I12">
-        <v>0.01507214343604052</v>
+        <v>0.3569823430826993</v>
       </c>
       <c r="J12">
-        <v>0.01507214343604052</v>
+        <v>0.3569823430826993</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.8144386666666666</v>
+        <v>0.467525</v>
       </c>
       <c r="N12">
-        <v>2.443316</v>
+        <v>1.402575</v>
       </c>
       <c r="O12">
-        <v>0.01220388106849596</v>
+        <v>0.007289261528465441</v>
       </c>
       <c r="P12">
-        <v>0.01220388106849596</v>
+        <v>0.007289261528465441</v>
       </c>
       <c r="Q12">
-        <v>1.201239751147111</v>
+        <v>20.4110886337</v>
       </c>
       <c r="R12">
-        <v>10.811157760324</v>
+        <v>183.6997977033</v>
       </c>
       <c r="S12">
-        <v>0.0001839386459407506</v>
+        <v>0.002602137659774171</v>
       </c>
       <c r="T12">
-        <v>0.0001839386459407506</v>
+        <v>0.002602137659774171</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.474929666666667</v>
+        <v>43.657748</v>
       </c>
       <c r="H13">
-        <v>4.424789000000001</v>
+        <v>130.973244</v>
       </c>
       <c r="I13">
-        <v>0.01507214343604052</v>
+        <v>0.3569823430826993</v>
       </c>
       <c r="J13">
-        <v>0.01507214343604052</v>
+        <v>0.3569823430826993</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,276 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>65.34528366666666</v>
+        <v>63.556834</v>
       </c>
       <c r="N13">
-        <v>196.035851</v>
+        <v>190.670502</v>
       </c>
       <c r="O13">
-        <v>0.9791603749844043</v>
+        <v>0.9909253728619096</v>
       </c>
       <c r="P13">
-        <v>0.9791603749844044</v>
+        <v>0.9909253728619095</v>
       </c>
       <c r="Q13">
-        <v>96.37969745671545</v>
+        <v>2774.748242449832</v>
       </c>
       <c r="R13">
-        <v>867.417277110439</v>
+        <v>24972.73418204849</v>
       </c>
       <c r="S13">
-        <v>0.01475804561865217</v>
+        <v>0.3537428614243419</v>
       </c>
       <c r="T13">
-        <v>0.01475804561865217</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>36.015061</v>
-      </c>
-      <c r="H14">
-        <v>108.045183</v>
-      </c>
-      <c r="I14">
-        <v>0.3680339324088102</v>
-      </c>
-      <c r="J14">
-        <v>0.3680339324088102</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M14">
-        <v>0.1087903333333333</v>
-      </c>
-      <c r="N14">
-        <v>0.326371</v>
-      </c>
-      <c r="O14">
-        <v>0.001630158713897873</v>
-      </c>
-      <c r="P14">
-        <v>0.001630158713897873</v>
-      </c>
-      <c r="Q14">
-        <v>3.918090491210334</v>
-      </c>
-      <c r="R14">
-        <v>35.26281442089301</v>
-      </c>
-      <c r="S14">
-        <v>0.0005999537219263227</v>
-      </c>
-      <c r="T14">
-        <v>0.0005999537219263227</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>36.015061</v>
-      </c>
-      <c r="H15">
-        <v>108.045183</v>
-      </c>
-      <c r="I15">
-        <v>0.3680339324088102</v>
-      </c>
-      <c r="J15">
-        <v>0.3680339324088102</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>0.467525</v>
-      </c>
-      <c r="N15">
-        <v>1.402575</v>
-      </c>
-      <c r="O15">
-        <v>0.007005585233201815</v>
-      </c>
-      <c r="P15">
-        <v>0.007005585233201815</v>
-      </c>
-      <c r="Q15">
-        <v>16.837941394025</v>
-      </c>
-      <c r="R15">
-        <v>151.541472546225</v>
-      </c>
-      <c r="S15">
-        <v>0.002578293082200356</v>
-      </c>
-      <c r="T15">
-        <v>0.002578293082200356</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>36.015061</v>
-      </c>
-      <c r="H16">
-        <v>108.045183</v>
-      </c>
-      <c r="I16">
-        <v>0.3680339324088102</v>
-      </c>
-      <c r="J16">
-        <v>0.3680339324088102</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.8144386666666666</v>
-      </c>
-      <c r="N16">
-        <v>2.443316</v>
-      </c>
-      <c r="O16">
-        <v>0.01220388106849596</v>
-      </c>
-      <c r="P16">
-        <v>0.01220388106849596</v>
-      </c>
-      <c r="Q16">
-        <v>29.33205826075867</v>
-      </c>
-      <c r="R16">
-        <v>263.988524346828</v>
-      </c>
-      <c r="S16">
-        <v>0.004491442340288001</v>
-      </c>
-      <c r="T16">
-        <v>0.004491442340288001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>36.015061</v>
-      </c>
-      <c r="H17">
-        <v>108.045183</v>
-      </c>
-      <c r="I17">
-        <v>0.3680339324088102</v>
-      </c>
-      <c r="J17">
-        <v>0.3680339324088102</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>65.34528366666666</v>
-      </c>
-      <c r="N17">
-        <v>196.035851</v>
-      </c>
-      <c r="O17">
-        <v>0.9791603749844043</v>
-      </c>
-      <c r="P17">
-        <v>0.9791603749844044</v>
-      </c>
-      <c r="Q17">
-        <v>2353.414377317304</v>
-      </c>
-      <c r="R17">
-        <v>21180.72939585573</v>
-      </c>
-      <c r="S17">
-        <v>0.3603642432643955</v>
-      </c>
-      <c r="T17">
-        <v>0.3603642432643955</v>
+        <v>0.3537428614243419</v>
       </c>
     </row>
   </sheetData>
